--- a/build/assets/images/Reporte Agendamiento-2_1_2024.xlsx
+++ b/build/assets/images/Reporte Agendamiento-2_1_2024.xlsx
@@ -522,6 +522,12 @@
       <c r="T2" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V2" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W2" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -672,6 +678,12 @@
       <c r="T5" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V5" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W5" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -722,6 +734,12 @@
       <c r="T6" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V6" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W6" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -772,6 +790,12 @@
       <c r="T7" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V7" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
+      <c r="W7" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -822,6 +846,12 @@
       <c r="T8" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V8" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
+      <c r="W8" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -872,6 +902,12 @@
       <c r="T9" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V9" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
+      <c r="W9" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -922,6 +958,12 @@
       <c r="T10" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V10" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W10" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -972,6 +1014,12 @@
       <c r="T11" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V11" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W11" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1022,6 +1070,12 @@
       <c r="T12" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V12" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
+      <c r="W12" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1072,6 +1126,12 @@
       <c r="T13" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V13" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
+      <c r="W13" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1122,6 +1182,12 @@
       <c r="T14" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V14" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
+      <c r="W14" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1172,6 +1238,12 @@
       <c r="T15" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V15" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
+      <c r="W15" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1222,6 +1294,12 @@
       <c r="T16" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V16" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
+      <c r="W16" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1272,6 +1350,12 @@
       <c r="T17" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V17" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
+      <c r="W17" t="str">
+        <v>Mon Dec 28 2020 13:30:00 (COT)</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1322,6 +1406,12 @@
       <c r="T18" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V18" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W18" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1372,6 +1462,12 @@
       <c r="T19" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V19" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
+      <c r="W19" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1422,6 +1518,12 @@
       <c r="T20" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V20" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W20" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1472,6 +1574,12 @@
       <c r="T21" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V21" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W21" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1522,6 +1630,12 @@
       <c r="T22" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V22" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W22" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1572,6 +1686,12 @@
       <c r="T23" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V23" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W23" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1622,6 +1742,12 @@
       <c r="T24" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V24" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W24" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1672,6 +1798,12 @@
       <c r="T25" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V25" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
+      <c r="W25" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1722,6 +1854,12 @@
       <c r="T26" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V26" t="str">
+        <v>Fri Jul 29 2022 21:00:00 (COT)</v>
+      </c>
+      <c r="W26" t="str">
+        <v>Fri Jul 29 2022 21:00:00 (COT)</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1772,6 +1910,12 @@
       <c r="T27" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V27" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W27" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1822,6 +1966,12 @@
       <c r="T28" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V28" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W28" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1872,6 +2022,12 @@
       <c r="T29" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V29" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W29" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1922,6 +2078,12 @@
       <c r="T30" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V30" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W30" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1972,6 +2134,12 @@
       <c r="T31" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V31" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W31" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -2022,6 +2190,12 @@
       <c r="T32" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V32" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W32" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -2072,6 +2246,12 @@
       <c r="T33" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V33" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W33" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -2122,6 +2302,12 @@
       <c r="T34" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V34" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W34" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -2772,6 +2958,12 @@
       <c r="T47" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V47" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W47" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2972,6 +3164,12 @@
       <c r="T51" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V51" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W51" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -3022,6 +3220,12 @@
       <c r="T52" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V52" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
+      <c r="W52" t="str">
+        <v>Tue Jan 18 2022 19:00:00 (COT)</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -3172,6 +3376,12 @@
       <c r="T55" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V55" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
+      <c r="W55" t="str">
+        <v>Thu Dec 30 2021 17:30:00 (COT)</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -3922,6 +4132,12 @@
       <c r="T70" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V70" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W70" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -3972,6 +4188,12 @@
       <c r="T71" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V71" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W71" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -4022,6 +4244,12 @@
       <c r="T72" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V72" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W72" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -4072,6 +4300,12 @@
       <c r="T73" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V73" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W73" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -4122,6 +4356,12 @@
       <c r="T74" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V74" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W74" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -4172,6 +4412,12 @@
       <c r="T75" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V75" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W75" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -4222,6 +4468,12 @@
       <c r="T76" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V76" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W76" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -4272,6 +4524,12 @@
       <c r="T77" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V77" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W77" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -4322,6 +4580,12 @@
       <c r="T78" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V78" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W78" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -4372,6 +4636,12 @@
       <c r="T79" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V79" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W79" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -4422,6 +4692,12 @@
       <c r="T80" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V80" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W80" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -4472,6 +4748,12 @@
       <c r="T81" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V81" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W81" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -4522,6 +4804,12 @@
       <c r="T82" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V82" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W82" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -4572,6 +4860,12 @@
       <c r="T83" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V83" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W83" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -4722,6 +5016,12 @@
       <c r="T86" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V86" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W86" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -4772,6 +5072,12 @@
       <c r="T87" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V87" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W87" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -5022,6 +5328,12 @@
       <c r="T92" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V92" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
+      <c r="W92" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -5072,6 +5384,12 @@
       <c r="T93" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V93" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
+      <c r="W93" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -5122,6 +5440,12 @@
       <c r="T94" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V94" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
+      <c r="W94" t="str">
+        <v>Tue Aug 02 2022 17:00:00 (COT)</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -5172,6 +5496,12 @@
       <c r="T95" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V95" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W95" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -5222,6 +5552,12 @@
       <c r="T96" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V96" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W96" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -5272,6 +5608,12 @@
       <c r="T97" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V97" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W97" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -5322,6 +5664,12 @@
       <c r="T98" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V98" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W98" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -5372,6 +5720,12 @@
       <c r="T99" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V99" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
+      <c r="W99" t="str">
+        <v>Wed Jun 29 2022 18:20:00 (COT)</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -5422,6 +5776,12 @@
       <c r="T100" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V100" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W100" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -5522,6 +5882,12 @@
       <c r="T102" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V102" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W102" t="str">
+        <v>Thu Apr 07 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -5572,6 +5938,12 @@
       <c r="T103" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V103" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W103" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -5672,6 +6044,12 @@
       <c r="T105" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V105" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W105" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -5722,6 +6100,12 @@
       <c r="T106" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V106" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W106" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -5772,6 +6156,12 @@
       <c r="T107" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V107" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W107" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -5822,6 +6212,12 @@
       <c r="T108" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V108" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W108" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -5872,6 +6268,12 @@
       <c r="T109" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V109" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W109" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -5922,6 +6324,12 @@
       <c r="T110" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V110" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W110" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -5972,6 +6380,12 @@
       <c r="T111" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V111" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W111" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -6022,6 +6436,12 @@
       <c r="T112" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V112" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W112" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -6072,6 +6492,12 @@
       <c r="T113" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V113" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W113" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -6122,6 +6548,12 @@
       <c r="T114" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V114" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W114" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -6172,6 +6604,12 @@
       <c r="T115" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V115" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W115" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -6222,6 +6660,12 @@
       <c r="T116" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V116" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W116" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -6272,6 +6716,12 @@
       <c r="T117" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V117" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W117" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -6322,6 +6772,12 @@
       <c r="T118" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V118" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W118" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -6372,6 +6828,12 @@
       <c r="T119" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V119" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W119" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -6422,6 +6884,12 @@
       <c r="T120" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V120" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W120" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -6472,6 +6940,12 @@
       <c r="T121" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V121" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W121" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -6522,6 +6996,12 @@
       <c r="T122" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V122" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W122" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -6572,6 +7052,12 @@
       <c r="T123" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V123" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W123" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -6622,6 +7108,12 @@
       <c r="T124" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V124" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W124" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -6672,6 +7164,12 @@
       <c r="T125" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V125" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W125" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -6722,6 +7220,12 @@
       <c r="T126" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V126" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W126" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -6772,6 +7276,12 @@
       <c r="T127" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V127" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W127" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -6822,6 +7332,12 @@
       <c r="T128" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V128" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W128" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -6872,6 +7388,12 @@
       <c r="T129" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V129" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W129" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -6922,6 +7444,12 @@
       <c r="T130" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V130" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W130" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -6972,6 +7500,12 @@
       <c r="T131" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V131" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W131" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -7022,6 +7556,12 @@
       <c r="T132" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V132" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W132" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -7072,6 +7612,12 @@
       <c r="T133" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V133" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W133" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -7122,6 +7668,12 @@
       <c r="T134" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V134" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W134" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -7172,6 +7724,12 @@
       <c r="T135" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V135" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W135" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -7222,6 +7780,12 @@
       <c r="T136" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V136" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W136" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -7272,6 +7836,12 @@
       <c r="T137" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V137" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W137" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -7322,6 +7892,12 @@
       <c r="T138" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V138" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W138" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -9122,6 +9698,12 @@
       <c r="T174" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V174" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
+      <c r="W174" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -9172,6 +9754,12 @@
       <c r="T175" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V175" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
+      <c r="W175" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -9222,6 +9810,12 @@
       <c r="T176" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V176" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
+      <c r="W176" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -9272,6 +9866,12 @@
       <c r="T177" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V177" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
+      <c r="W177" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -9322,6 +9922,12 @@
       <c r="T178" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V178" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
+      <c r="W178" t="str">
+        <v>Mon May 29 2023 16:00:00 (COT)</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -9472,6 +10078,12 @@
       <c r="T181" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V181" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W181" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -9522,6 +10134,12 @@
       <c r="T182" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V182" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W182" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -9572,6 +10190,12 @@
       <c r="T183" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V183" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W183" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -9622,6 +10246,12 @@
       <c r="T184" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V184" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W184" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -9672,6 +10302,12 @@
       <c r="T185" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V185" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W185" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -9722,6 +10358,12 @@
       <c r="T186" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V186" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W186" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -9772,6 +10414,12 @@
       <c r="T187" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V187" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W187" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -9822,6 +10470,12 @@
       <c r="T188" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V188" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W188" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -9872,6 +10526,12 @@
       <c r="T189" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V189" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W189" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -9922,6 +10582,12 @@
       <c r="T190" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V190" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W190" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -9972,6 +10638,12 @@
       <c r="T191" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V191" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W191" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -10022,6 +10694,12 @@
       <c r="T192" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V192" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W192" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -10072,6 +10750,12 @@
       <c r="T193" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V193" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W193" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -10122,6 +10806,12 @@
       <c r="T194" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V194" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W194" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -10172,6 +10862,12 @@
       <c r="T195" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V195" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W195" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -10222,6 +10918,12 @@
       <c r="T196" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V196" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W196" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -10272,6 +10974,12 @@
       <c r="T197" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V197" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W197" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -10322,6 +11030,12 @@
       <c r="T198" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V198" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W198" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -10372,6 +11086,12 @@
       <c r="T199" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V199" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W199" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -10422,6 +11142,12 @@
       <c r="T200" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V200" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W200" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -10472,6 +11198,12 @@
       <c r="T201" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V201" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W201" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -10522,6 +11254,12 @@
       <c r="T202" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V202" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W202" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -10572,6 +11310,12 @@
       <c r="T203" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V203" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W203" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -10622,6 +11366,12 @@
       <c r="T204" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V204" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W204" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -10672,6 +11422,12 @@
       <c r="T205" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V205" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W205" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -10722,6 +11478,12 @@
       <c r="T206" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V206" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W206" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -10772,6 +11534,12 @@
       <c r="T207" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V207" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W207" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -10822,6 +11590,12 @@
       <c r="T208" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V208" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W208" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -10872,6 +11646,12 @@
       <c r="T209" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V209" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W209" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -10922,6 +11702,12 @@
       <c r="T210" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V210" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W210" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -10972,6 +11758,12 @@
       <c r="T211" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V211" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W211" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -11022,6 +11814,12 @@
       <c r="T212" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V212" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W212" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -11072,6 +11870,12 @@
       <c r="T213" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V213" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W213" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -11122,6 +11926,12 @@
       <c r="T214" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V214" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W214" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -11172,6 +11982,12 @@
       <c r="T215" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V215" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W215" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -11222,6 +12038,12 @@
       <c r="T216" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V216" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W216" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -11272,6 +12094,12 @@
       <c r="T217" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V217" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W217" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -11322,6 +12150,12 @@
       <c r="T218" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V218" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W218" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -11372,6 +12206,12 @@
       <c r="T219" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V219" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W219" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -11422,6 +12262,12 @@
       <c r="T220" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V220" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W220" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -11472,6 +12318,12 @@
       <c r="T221" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V221" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W221" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -11522,6 +12374,12 @@
       <c r="T222" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V222" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W222" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -11572,6 +12430,12 @@
       <c r="T223" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V223" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W223" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -11622,6 +12486,12 @@
       <c r="T224" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V224" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W224" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -11672,6 +12542,12 @@
       <c r="T225" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V225" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W225" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -11722,6 +12598,12 @@
       <c r="T226" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V226" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W226" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -11772,6 +12654,12 @@
       <c r="T227" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V227" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W227" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -11822,6 +12710,12 @@
       <c r="T228" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V228" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W228" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -11872,6 +12766,12 @@
       <c r="T229" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V229" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W229" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -11922,6 +12822,12 @@
       <c r="T230" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V230" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W230" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -11972,6 +12878,12 @@
       <c r="T231" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V231" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W231" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -12022,6 +12934,12 @@
       <c r="T232" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V232" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W232" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -12072,6 +12990,12 @@
       <c r="T233" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V233" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W233" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -12122,6 +13046,12 @@
       <c r="T234" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V234" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W234" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -12172,6 +13102,12 @@
       <c r="T235" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V235" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W235" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -12222,6 +13158,12 @@
       <c r="T236" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V236" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W236" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -12272,6 +13214,12 @@
       <c r="T237" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V237" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W237" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -12322,6 +13270,12 @@
       <c r="T238" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V238" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W238" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -12372,6 +13326,12 @@
       <c r="T239" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V239" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W239" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -12422,6 +13382,12 @@
       <c r="T240" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V240" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W240" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -12472,6 +13438,12 @@
       <c r="T241" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V241" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W241" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -12522,6 +13494,12 @@
       <c r="T242" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V242" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W242" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -12572,6 +13550,12 @@
       <c r="T243" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V243" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W243" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -12622,6 +13606,12 @@
       <c r="T244" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V244" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W244" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -12672,6 +13662,12 @@
       <c r="T245" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V245" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W245" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -12722,6 +13718,12 @@
       <c r="T246" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V246" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W246" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -12772,6 +13774,12 @@
       <c r="T247" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V247" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W247" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -12822,6 +13830,12 @@
       <c r="T248" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V248" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W248" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -12872,6 +13886,12 @@
       <c r="T249" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V249" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W249" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -12922,6 +13942,12 @@
       <c r="T250" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V250" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W250" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -13022,6 +14048,12 @@
       <c r="T252" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V252" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W252" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -13122,6 +14154,12 @@
       <c r="T254" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V254" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W254" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -13172,6 +14210,12 @@
       <c r="T255" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V255" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W255" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -13222,6 +14266,12 @@
       <c r="T256" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V256" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W256" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -13272,6 +14322,12 @@
       <c r="T257" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V257" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W257" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -13322,6 +14378,12 @@
       <c r="T258" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V258" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W258" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -13372,6 +14434,12 @@
       <c r="T259" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V259" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W259" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -13422,6 +14490,12 @@
       <c r="T260" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V260" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W260" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -13472,6 +14546,12 @@
       <c r="T261" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V261" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W261" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -13522,6 +14602,12 @@
       <c r="T262" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V262" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W262" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -13572,6 +14658,12 @@
       <c r="T263" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V263" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W263" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -13622,6 +14714,12 @@
       <c r="T264" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V264" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W264" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -13672,6 +14770,12 @@
       <c r="T265" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V265" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
+      <c r="W265" t="str">
+        <v>Tue Jul 04 2023 16:20:00 (COT)</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -14572,6 +15676,12 @@
       <c r="T283" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V283" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W283" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -14822,6 +15932,12 @@
       <c r="T288" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V288" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W288" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -14872,6 +15988,12 @@
       <c r="T289" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V289" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W289" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -14922,6 +16044,12 @@
       <c r="T290" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V290" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W290" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -14972,6 +16100,12 @@
       <c r="T291" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V291" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W291" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -15022,6 +16156,12 @@
       <c r="T292" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V292" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W292" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -15072,6 +16212,12 @@
       <c r="T293" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V293" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W293" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -15122,6 +16268,12 @@
       <c r="T294" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V294" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W294" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -15172,6 +16324,12 @@
       <c r="T295" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V295" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W295" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -16572,6 +17730,12 @@
       <c r="T323" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V323" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W323" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -16622,6 +17786,12 @@
       <c r="T324" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V324" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W324" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
@@ -16672,6 +17842,12 @@
       <c r="T325" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V325" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W325" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -16722,6 +17898,12 @@
       <c r="T326" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V326" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W326" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -16772,6 +17954,12 @@
       <c r="T327" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V327" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W327" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
@@ -16822,6 +18010,12 @@
       <c r="T328" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V328" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W328" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -16872,6 +18066,12 @@
       <c r="T329" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V329" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W329" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
@@ -16922,6 +18122,12 @@
       <c r="T330" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V330" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W330" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
@@ -16972,6 +18178,12 @@
       <c r="T331" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V331" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W331" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -17022,6 +18234,12 @@
       <c r="T332" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V332" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W332" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -17072,6 +18290,12 @@
       <c r="T333" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V333" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W333" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -17122,6 +18346,12 @@
       <c r="T334" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V334" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W334" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -17172,6 +18402,12 @@
       <c r="T335" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V335" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W335" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
@@ -17222,6 +18458,12 @@
       <c r="T336" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V336" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W336" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
@@ -17272,6 +18514,12 @@
       <c r="T337" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V337" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W337" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
@@ -17322,6 +18570,12 @@
       <c r="T338" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V338" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W338" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -17372,6 +18626,12 @@
       <c r="T339" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V339" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W339" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
@@ -17422,6 +18682,12 @@
       <c r="T340" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V340" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W340" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
@@ -17472,6 +18738,12 @@
       <c r="T341" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V341" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W341" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -17522,6 +18794,12 @@
       <c r="T342" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V342" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W342" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
@@ -17572,6 +18850,12 @@
       <c r="T343" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V343" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W343" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -17622,6 +18906,12 @@
       <c r="T344" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V344" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W344" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -17672,6 +18962,12 @@
       <c r="T345" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V345" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W345" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
@@ -17722,6 +19018,12 @@
       <c r="T346" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V346" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W346" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -17772,6 +19074,12 @@
       <c r="T347" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V347" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W347" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
@@ -17822,6 +19130,12 @@
       <c r="T348" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V348" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W348" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
@@ -17872,6 +19186,12 @@
       <c r="T349" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V349" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W349" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -17922,6 +19242,12 @@
       <c r="T350" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V350" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W350" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
@@ -18072,6 +19398,12 @@
       <c r="T353" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V353" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
+      <c r="W353" t="str">
+        <v>Wed Dec 14 2022 14:30:00 (COT)</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -18272,6 +19604,12 @@
       <c r="T357" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V357" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
+      <c r="W357" t="str">
+        <v>Wed Nov 30 2022 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
@@ -18322,6 +19660,12 @@
       <c r="T358" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V358" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
+      <c r="W358" t="str">
+        <v>Fri Sep 23 2022 13:00:00 (COT)</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
@@ -18372,6 +19716,12 @@
       <c r="T359" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V359" t="str">
+        <v>Fri Jul 29 2022 21:00:00 (COT)</v>
+      </c>
+      <c r="W359" t="str">
+        <v>Fri Jul 29 2022 21:00:00 (COT)</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
@@ -18722,6 +20072,12 @@
       <c r="T366" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V366" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
+      <c r="W366" t="str">
+        <v>Fri Aug 11 2023 18:00:00 (COT)</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
@@ -18822,6 +20178,12 @@
       <c r="T368" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V368" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W368" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
@@ -18922,6 +20284,12 @@
       <c r="T370" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V370" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W370" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
@@ -19022,6 +20390,12 @@
       <c r="T372" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V372" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W372" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
@@ -19072,6 +20446,12 @@
       <c r="T373" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V373" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W373" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
@@ -19122,6 +20502,12 @@
       <c r="T374" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V374" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W374" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
@@ -19172,6 +20558,12 @@
       <c r="T375" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V375" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W375" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
@@ -19222,6 +20614,12 @@
       <c r="T376" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V376" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W376" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
@@ -19322,6 +20720,12 @@
       <c r="T378" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V378" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W378" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
@@ -19372,6 +20776,12 @@
       <c r="T379" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V379" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W379" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
@@ -19422,6 +20832,12 @@
       <c r="T380" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V380" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W380" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
@@ -19472,6 +20888,12 @@
       <c r="T381" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V381" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W381" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
@@ -19522,6 +20944,12 @@
       <c r="T382" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V382" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W382" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
@@ -19572,6 +21000,12 @@
       <c r="T383" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V383" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W383" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
@@ -19622,6 +21056,12 @@
       <c r="T384" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V384" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W384" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
@@ -19672,6 +21112,12 @@
       <c r="T385" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V385" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W385" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
@@ -19722,6 +21168,12 @@
       <c r="T386" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V386" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W386" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
@@ -19772,6 +21224,12 @@
       <c r="T387" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V387" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W387" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
@@ -19822,6 +21280,12 @@
       <c r="T388" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V388" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W388" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
@@ -19872,6 +21336,12 @@
       <c r="T389" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V389" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W389" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
@@ -19922,6 +21392,12 @@
       <c r="T390" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V390" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W390" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
@@ -19972,6 +21448,12 @@
       <c r="T391" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V391" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W391" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
@@ -20022,6 +21504,12 @@
       <c r="T392" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V392" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W392" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
@@ -20072,6 +21560,12 @@
       <c r="T393" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V393" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W393" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
@@ -20122,6 +21616,12 @@
       <c r="T394" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V394" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W394" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
@@ -20172,6 +21672,12 @@
       <c r="T395" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V395" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W395" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
@@ -20222,6 +21728,12 @@
       <c r="T396" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V396" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W396" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
@@ -20272,6 +21784,12 @@
       <c r="T397" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V397" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W397" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
@@ -20322,6 +21840,12 @@
       <c r="T398" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V398" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W398" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
@@ -20372,6 +21896,12 @@
       <c r="T399" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V399" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W399" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
@@ -20422,6 +21952,12 @@
       <c r="T400" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V400" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W400" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
@@ -20472,6 +22008,12 @@
       <c r="T401" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V401" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W401" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
@@ -20522,6 +22064,12 @@
       <c r="T402" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V402" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W402" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
@@ -20572,6 +22120,12 @@
       <c r="T403" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V403" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W403" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
@@ -20622,6 +22176,12 @@
       <c r="T404" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V404" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W404" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
@@ -20672,6 +22232,12 @@
       <c r="T405" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V405" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W405" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
@@ -20722,6 +22288,12 @@
       <c r="T406" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V406" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W406" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
@@ -20772,6 +22344,12 @@
       <c r="T407" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V407" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W407" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
@@ -20822,6 +22400,12 @@
       <c r="T408" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V408" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W408" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
@@ -20872,6 +22456,12 @@
       <c r="T409" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V409" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W409" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
@@ -20922,6 +22512,12 @@
       <c r="T410" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V410" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W410" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
@@ -20972,6 +22568,12 @@
       <c r="T411" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V411" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W411" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
@@ -21022,6 +22624,12 @@
       <c r="T412" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V412" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W412" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
@@ -21072,6 +22680,12 @@
       <c r="T413" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V413" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W413" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
@@ -21122,6 +22736,12 @@
       <c r="T414" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V414" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W414" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
@@ -21172,6 +22792,12 @@
       <c r="T415" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V415" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W415" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
@@ -21222,6 +22848,12 @@
       <c r="T416" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V416" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W416" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
@@ -21272,6 +22904,12 @@
       <c r="T417" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V417" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W417" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
@@ -21322,6 +22960,12 @@
       <c r="T418" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V418" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W418" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
@@ -21372,6 +23016,12 @@
       <c r="T419" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V419" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W419" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
@@ -21422,6 +23072,12 @@
       <c r="T420" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V420" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W420" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
@@ -21472,6 +23128,12 @@
       <c r="T421" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V421" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W421" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
@@ -21522,6 +23184,12 @@
       <c r="T422" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V422" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W422" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
@@ -21572,6 +23240,12 @@
       <c r="T423" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V423" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W423" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
@@ -21622,6 +23296,12 @@
       <c r="T424" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V424" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W424" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
@@ -21672,6 +23352,12 @@
       <c r="T425" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V425" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W425" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
@@ -21722,6 +23408,12 @@
       <c r="T426" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V426" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W426" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
@@ -21772,6 +23464,12 @@
       <c r="T427" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V427" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W427" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
@@ -21822,6 +23520,12 @@
       <c r="T428" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V428" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W428" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
@@ -21872,6 +23576,12 @@
       <c r="T429" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V429" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W429" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
@@ -21922,6 +23632,12 @@
       <c r="T430" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V430" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W430" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
@@ -21972,6 +23688,12 @@
       <c r="T431" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V431" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W431" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
@@ -22022,6 +23744,12 @@
       <c r="T432" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V432" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W432" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
@@ -22072,6 +23800,12 @@
       <c r="T433" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V433" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W433" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
@@ -22122,6 +23856,12 @@
       <c r="T434" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V434" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W434" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
@@ -22172,6 +23912,12 @@
       <c r="T435" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V435" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W435" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
@@ -22222,6 +23968,12 @@
       <c r="T436" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V436" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W436" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
@@ -22272,6 +24024,12 @@
       <c r="T437" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V437" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W437" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
@@ -22322,6 +24080,12 @@
       <c r="T438" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V438" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W438" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
@@ -22372,6 +24136,12 @@
       <c r="T439" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V439" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W439" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
@@ -22422,6 +24192,12 @@
       <c r="T440" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V440" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W440" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
@@ -22472,6 +24248,12 @@
       <c r="T441" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V441" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W441" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
@@ -22522,6 +24304,12 @@
       <c r="T442" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V442" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W442" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
@@ -22572,6 +24360,12 @@
       <c r="T443" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V443" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W443" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
@@ -22622,6 +24416,12 @@
       <c r="T444" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V444" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W444" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
@@ -22672,6 +24472,12 @@
       <c r="T445" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V445" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W445" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
@@ -22722,6 +24528,12 @@
       <c r="T446" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V446" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W446" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
@@ -22772,6 +24584,12 @@
       <c r="T447" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V447" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W447" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
@@ -22822,6 +24640,12 @@
       <c r="T448" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V448" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W448" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
@@ -22872,6 +24696,12 @@
       <c r="T449" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V449" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W449" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
@@ -22922,6 +24752,12 @@
       <c r="T450" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V450" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W450" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
@@ -22972,6 +24808,12 @@
       <c r="T451" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V451" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W451" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
@@ -23022,6 +24864,12 @@
       <c r="T452" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V452" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W452" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
@@ -23072,6 +24920,12 @@
       <c r="T453" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V453" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W453" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
@@ -23122,6 +24976,12 @@
       <c r="T454" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V454" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W454" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
@@ -23172,6 +25032,12 @@
       <c r="T455" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V455" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W455" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
@@ -23222,6 +25088,12 @@
       <c r="T456" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V456" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W456" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
@@ -23272,6 +25144,12 @@
       <c r="T457" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V457" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W457" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
@@ -23322,6 +25200,12 @@
       <c r="T458" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V458" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W458" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
@@ -23372,6 +25256,12 @@
       <c r="T459" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V459" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W459" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
@@ -23422,6 +25312,12 @@
       <c r="T460" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V460" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W460" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
@@ -23472,6 +25368,12 @@
       <c r="T461" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V461" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W461" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
@@ -23522,6 +25424,12 @@
       <c r="T462" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V462" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W462" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
@@ -23572,6 +25480,12 @@
       <c r="T463" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V463" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W463" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
@@ -23622,6 +25536,12 @@
       <c r="T464" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V464" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W464" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
@@ -23672,6 +25592,12 @@
       <c r="T465" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V465" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W465" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
@@ -23722,6 +25648,12 @@
       <c r="T466" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V466" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W466" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
@@ -23772,6 +25704,12 @@
       <c r="T467" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V467" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W467" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
@@ -23822,6 +25760,12 @@
       <c r="T468" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V468" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W468" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
@@ -23872,6 +25816,12 @@
       <c r="T469" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V469" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W469" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
@@ -24322,6 +26272,12 @@
       <c r="T478" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V478" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W478" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
@@ -24372,6 +26328,12 @@
       <c r="T479" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V479" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W479" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
@@ -24422,6 +26384,12 @@
       <c r="T480" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V480" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W480" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
@@ -24472,6 +26440,12 @@
       <c r="T481" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V481" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W481" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
@@ -24522,6 +26496,12 @@
       <c r="T482" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V482" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W482" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
@@ -24572,6 +26552,12 @@
       <c r="T483" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V483" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W483" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
@@ -24622,6 +26608,12 @@
       <c r="T484" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V484" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W484" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
@@ -24672,6 +26664,12 @@
       <c r="T485" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V485" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W485" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
@@ -24722,6 +26720,12 @@
       <c r="T486" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V486" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W486" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
@@ -24772,6 +26776,12 @@
       <c r="T487" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V487" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W487" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
@@ -24822,6 +26832,12 @@
       <c r="T488" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V488" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W488" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="str">
@@ -24872,6 +26888,12 @@
       <c r="T489" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V489" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W489" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
@@ -24922,6 +26944,12 @@
       <c r="T490" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V490" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W490" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
@@ -24972,6 +27000,12 @@
       <c r="T491" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V491" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W491" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
@@ -25022,6 +27056,12 @@
       <c r="T492" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V492" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W492" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
@@ -25072,6 +27112,12 @@
       <c r="T493" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V493" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
+      <c r="W493" t="str">
+        <v>Tue Feb 01 2022 09:00:00 (COT)</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
@@ -25122,6 +27168,12 @@
       <c r="T494" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V494" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W494" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
@@ -25172,6 +27224,12 @@
       <c r="T495" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V495" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W495" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
@@ -25222,6 +27280,12 @@
       <c r="T496" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V496" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W496" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
@@ -25272,6 +27336,12 @@
       <c r="T497" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V497" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W497" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
@@ -25322,6 +27392,12 @@
       <c r="T498" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V498" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W498" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
@@ -25372,6 +27448,12 @@
       <c r="T499" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V499" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W499" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
@@ -25422,6 +27504,12 @@
       <c r="T500" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V500" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W500" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="str">
@@ -25472,6 +27560,12 @@
       <c r="T501" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V501" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W501" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="str">
@@ -25522,6 +27616,12 @@
       <c r="T502" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V502" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W502" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="str">
@@ -25572,6 +27672,12 @@
       <c r="T503" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V503" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W503" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="str">
@@ -25622,6 +27728,12 @@
       <c r="T504" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V504" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W504" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="str">
@@ -25672,6 +27784,12 @@
       <c r="T505" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V505" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W505" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="str">
@@ -25722,6 +27840,12 @@
       <c r="T506" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V506" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W506" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="str">
@@ -25772,6 +27896,12 @@
       <c r="T507" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V507" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W507" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="str">
@@ -25822,6 +27952,12 @@
       <c r="T508" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V508" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W508" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="str">
@@ -25872,6 +28008,12 @@
       <c r="T509" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V509" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W509" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="str">
@@ -25922,6 +28064,12 @@
       <c r="T510" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V510" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W510" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="str">
@@ -25972,6 +28120,12 @@
       <c r="T511" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V511" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W511" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="str">
@@ -26022,6 +28176,12 @@
       <c r="T512" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V512" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W512" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="str">
@@ -26072,6 +28232,12 @@
       <c r="T513" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V513" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W513" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="str">
@@ -26122,6 +28288,12 @@
       <c r="T514" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V514" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W514" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="str">
@@ -26172,6 +28344,12 @@
       <c r="T515" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V515" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W515" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="str">
@@ -26222,6 +28400,12 @@
       <c r="T516" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V516" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W516" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="str">
@@ -26272,6 +28456,12 @@
       <c r="T517" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V517" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W517" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="str">
@@ -26322,6 +28512,12 @@
       <c r="T518" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V518" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W518" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="str">
@@ -26372,6 +28568,12 @@
       <c r="T519" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V519" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W519" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="str">
@@ -26422,6 +28624,12 @@
       <c r="T520" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V520" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W520" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="str">
@@ -26472,6 +28680,12 @@
       <c r="T521" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V521" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W521" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="str">
@@ -26522,6 +28736,12 @@
       <c r="T522" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V522" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W522" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="str">
@@ -26572,6 +28792,12 @@
       <c r="T523" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V523" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W523" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="str">
@@ -26622,6 +28848,12 @@
       <c r="T524" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V524" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W524" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="str">
@@ -26672,6 +28904,12 @@
       <c r="T525" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V525" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W525" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="str">
@@ -26722,6 +28960,12 @@
       <c r="T526" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V526" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W526" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="str">
@@ -26772,6 +29016,12 @@
       <c r="T527" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V527" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W527" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="str">
@@ -26822,6 +29072,12 @@
       <c r="T528" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V528" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W528" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="str">
@@ -26872,6 +29128,12 @@
       <c r="T529" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V529" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W529" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="str">
@@ -26922,6 +29184,12 @@
       <c r="T530" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V530" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W530" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="str">
@@ -26972,6 +29240,12 @@
       <c r="T531" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V531" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W531" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="str">
@@ -27022,6 +29296,12 @@
       <c r="T532" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V532" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W532" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="str">
@@ -27072,6 +29352,12 @@
       <c r="T533" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V533" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W533" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="str">
@@ -27122,6 +29408,12 @@
       <c r="T534" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V534" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W534" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="str">
@@ -27172,6 +29464,12 @@
       <c r="T535" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V535" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W535" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="str">
@@ -27222,6 +29520,12 @@
       <c r="T536" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V536" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W536" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="str">
@@ -27272,6 +29576,12 @@
       <c r="T537" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V537" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W537" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="str">
@@ -27322,6 +29632,12 @@
       <c r="T538" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V538" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W538" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="str">
@@ -27372,6 +29688,12 @@
       <c r="T539" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V539" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W539" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="str">
@@ -27422,6 +29744,12 @@
       <c r="T540" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V540" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W540" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="str">
@@ -27472,6 +29800,12 @@
       <c r="T541" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V541" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W541" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="str">
@@ -27522,6 +29856,12 @@
       <c r="T542" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V542" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W542" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="str">
@@ -27572,6 +29912,12 @@
       <c r="T543" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V543" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W543" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="str">
@@ -27622,6 +29968,12 @@
       <c r="T544" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V544" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W544" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="str">
@@ -27672,6 +30024,12 @@
       <c r="T545" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V545" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W545" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="str">
@@ -27722,6 +30080,12 @@
       <c r="T546" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V546" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W546" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="str">
@@ -27772,6 +30136,12 @@
       <c r="T547" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V547" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W547" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="str">
@@ -27822,6 +30192,12 @@
       <c r="T548" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V548" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W548" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="str">
@@ -27872,6 +30248,12 @@
       <c r="T549" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V549" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W549" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="str">
@@ -27922,6 +30304,12 @@
       <c r="T550" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V550" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W550" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="str">
@@ -27972,6 +30360,12 @@
       <c r="T551" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V551" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W551" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="str">
@@ -28022,6 +30416,12 @@
       <c r="T552" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V552" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W552" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="str">
@@ -28072,6 +30472,12 @@
       <c r="T553" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V553" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W553" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="str">
@@ -28122,6 +30528,12 @@
       <c r="T554" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V554" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W554" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="str">
@@ -28222,6 +30634,12 @@
       <c r="T556" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V556" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W556" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="str">
@@ -28272,6 +30690,12 @@
       <c r="T557" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V557" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W557" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="str">
@@ -28472,6 +30896,12 @@
       <c r="T561" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V561" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W561" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="str">
@@ -28522,6 +30952,12 @@
       <c r="T562" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V562" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W562" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="str">
@@ -28572,6 +31008,12 @@
       <c r="T563" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V563" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W563" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="str">
@@ -28622,6 +31064,12 @@
       <c r="T564" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V564" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W564" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="str">
@@ -28672,6 +31120,12 @@
       <c r="T565" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V565" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W565" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="str">
@@ -28722,6 +31176,12 @@
       <c r="T566" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V566" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W566" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="str">
@@ -28772,6 +31232,12 @@
       <c r="T567" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V567" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W567" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="str">
@@ -28822,6 +31288,12 @@
       <c r="T568" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V568" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W568" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="str">
@@ -28872,6 +31344,12 @@
       <c r="T569" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V569" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W569" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="str">
@@ -28922,6 +31400,12 @@
       <c r="T570" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V570" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W570" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="str">
@@ -28972,6 +31456,12 @@
       <c r="T571" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V571" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W571" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="str">
@@ -29022,6 +31512,12 @@
       <c r="T572" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V572" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W572" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="str">
@@ -29072,6 +31568,12 @@
       <c r="T573" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V573" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W573" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="str">
@@ -29122,6 +31624,12 @@
       <c r="T574" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V574" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W574" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="str">
@@ -29172,6 +31680,12 @@
       <c r="T575" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V575" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W575" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="str">
@@ -29222,6 +31736,12 @@
       <c r="T576" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V576" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W576" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="str">
@@ -29272,6 +31792,12 @@
       <c r="T577" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V577" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W577" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="str">
@@ -29322,6 +31848,12 @@
       <c r="T578" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V578" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W578" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="str">
@@ -29372,6 +31904,12 @@
       <c r="T579" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V579" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W579" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="str">
@@ -29422,6 +31960,12 @@
       <c r="T580" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V580" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W580" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="str">
@@ -29472,6 +32016,12 @@
       <c r="T581" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V581" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W581" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="str">
@@ -29622,6 +32172,12 @@
       <c r="T584" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V584" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W584" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="str">
@@ -29672,6 +32228,12 @@
       <c r="T585" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V585" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W585" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="str">
@@ -29722,6 +32284,12 @@
       <c r="T586" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V586" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W586" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="str">
@@ -29772,6 +32340,12 @@
       <c r="T587" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V587" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W587" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="str">
@@ -29822,6 +32396,12 @@
       <c r="T588" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V588" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W588" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="str">
@@ -29872,6 +32452,12 @@
       <c r="T589" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V589" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W589" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="str">
@@ -29922,6 +32508,12 @@
       <c r="T590" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V590" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W590" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="str">
@@ -29972,6 +32564,12 @@
       <c r="T591" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V591" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W591" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="str">
@@ -30022,6 +32620,12 @@
       <c r="T592" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V592" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W592" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="str">
@@ -30072,6 +32676,12 @@
       <c r="T593" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V593" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W593" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="str">
@@ -30122,6 +32732,12 @@
       <c r="T594" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V594" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W594" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="str">
@@ -30172,6 +32788,12 @@
       <c r="T595" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V595" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W595" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="str">
@@ -30222,6 +32844,12 @@
       <c r="T596" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V596" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W596" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="str">
@@ -30272,6 +32900,12 @@
       <c r="T597" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V597" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W597" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="str">
@@ -30322,6 +32956,12 @@
       <c r="T598" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V598" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W598" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="str">
@@ -30372,6 +33012,12 @@
       <c r="T599" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V599" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W599" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="str">
@@ -30422,6 +33068,12 @@
       <c r="T600" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V600" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W600" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="str">
@@ -30472,6 +33124,12 @@
       <c r="T601" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V601" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W601" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="str">
@@ -30522,6 +33180,12 @@
       <c r="T602" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V602" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W602" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="str">
@@ -30572,6 +33236,12 @@
       <c r="T603" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V603" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W603" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="str">
@@ -30622,6 +33292,12 @@
       <c r="T604" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V604" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W604" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="str">
@@ -30672,6 +33348,12 @@
       <c r="T605" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V605" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W605" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="str">
@@ -30722,6 +33404,12 @@
       <c r="T606" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V606" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W606" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="str">
@@ -30772,6 +33460,12 @@
       <c r="T607" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V607" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W607" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="str">
@@ -30822,6 +33516,12 @@
       <c r="T608" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V608" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W608" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="str">
@@ -30872,6 +33572,12 @@
       <c r="T609" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V609" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W609" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="str">
@@ -30922,6 +33628,12 @@
       <c r="T610" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V610" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W610" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="str">
@@ -30972,6 +33684,12 @@
       <c r="T611" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V611" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W611" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="str">
@@ -31022,6 +33740,12 @@
       <c r="T612" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V612" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W612" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="str">
@@ -31072,6 +33796,12 @@
       <c r="T613" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V613" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W613" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="str">
@@ -35072,6 +37802,12 @@
       <c r="T693" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V693" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W693" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
@@ -35122,6 +37858,12 @@
       <c r="T694" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V694" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W694" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="str">
@@ -35172,6 +37914,12 @@
       <c r="T695" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V695" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W695" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
@@ -35222,6 +37970,12 @@
       <c r="T696" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V696" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W696" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
@@ -35272,6 +38026,12 @@
       <c r="T697" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V697" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W697" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="str">
@@ -35322,6 +38082,12 @@
       <c r="T698" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V698" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W698" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="str">
@@ -35372,6 +38138,12 @@
       <c r="T699" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V699" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W699" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="str">
@@ -35422,6 +38194,12 @@
       <c r="T700" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V700" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W700" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
@@ -38971,6 +41749,12 @@
       </c>
       <c r="T771" t="str">
         <v>Cita Importada</v>
+      </c>
+      <c r="V771" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
+      </c>
+      <c r="W771" t="str">
+        <v>Tue Mar 01 2022 19:30:00 (COT)</v>
       </c>
     </row>
     <row r="772">
@@ -53672,6 +56456,12 @@
       <c r="T1065" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1065" t="str">
+        <v>Thu Nov 02 2023 20:00:00 (COT)</v>
+      </c>
+      <c r="W1065" t="str">
+        <v>Thu Nov 02 2023 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" t="str">
@@ -53722,6 +56512,12 @@
       <c r="T1066" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1066" t="str">
+        <v>Thu Nov 02 2023 20:00:00 (COT)</v>
+      </c>
+      <c r="W1066" t="str">
+        <v>Thu Nov 02 2023 20:00:00 (COT)</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" t="str">
@@ -53772,6 +56568,12 @@
       <c r="T1067" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1067" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
+      <c r="W1067" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" t="str">
@@ -53822,6 +56624,12 @@
       <c r="T1068" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1068" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
+      <c r="W1068" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" t="str">
@@ -53872,6 +56680,12 @@
       <c r="T1069" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1069" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
+      <c r="W1069" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" t="str">
@@ -53922,6 +56736,12 @@
       <c r="T1070" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1070" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
+      <c r="W1070" t="str">
+        <v>Thu Dec 14 2023 21:00:00 (COT)</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" t="str">
@@ -53972,6 +56792,12 @@
       <c r="T1071" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1071" t="str">
+        <v>Thu Jan 04 2024 16:30:00 (COT)</v>
+      </c>
+      <c r="W1071" t="str">
+        <v>Thu Jan 04 2024 16:30:00 (COT)</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" t="str">
@@ -54022,6 +56848,12 @@
       <c r="T1072" t="str">
         <v>Cita Importada</v>
       </c>
+      <c r="V1072" t="str">
+        <v>Thu Jan 04 2024 16:30:00 (COT)</v>
+      </c>
+      <c r="W1072" t="str">
+        <v>Thu Jan 04 2024 16:30:00 (COT)</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" t="str">
@@ -54071,6 +56903,12 @@
       </c>
       <c r="T1073" t="str">
         <v>Cita Importada</v>
+      </c>
+      <c r="V1073" t="str">
+        <v>Thu Jan 04 2024 16:30:00 (COT)</v>
+      </c>
+      <c r="W1073" t="str">
+        <v>Thu Jan 04 2024 16:30:00 (COT)</v>
       </c>
     </row>
     <row r="1074">
